--- a/Exel/Lab15.xlsx
+++ b/Exel/Lab15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="2" r:id="rId1"/>
@@ -425,17 +425,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="33.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="33.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,16 +449,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -474,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -504,7 +504,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -534,12 +534,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -572,8 +572,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -582,8 +582,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -592,7 +592,7 @@
         <v>6.7082039324993694</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -612,17 +612,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="5"/>
+    <col min="2" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -655,7 +655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -664,7 +664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -673,7 +673,7 @@
         <v>6.7082039324993694</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
